--- a/sample/test/everything/everything_template.xlsx
+++ b/sample/test/everything/everything_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/everything/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E9944-E9F1-3549-ADC5-692D73F61802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC93E18-43B4-2547-9A6D-0907B13536BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
